--- a/sos_all_assays.xlsx
+++ b/sos_all_assays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F95867-DD25-9E4F-9572-B03B7B0F1F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307AEFDC-19A2-B94C-859B-72B0A63DF844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27360" windowHeight="16940" xr2:uid="{CF53EE06-8C5B-1647-8D2F-E4465C7625F6}"/>
   </bookViews>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BA2D80-BF5C-8F43-B4ED-AF7A1A530888}">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1083,7 +1083,7 @@
         <v>5</v>
       </c>
       <c r="M37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N37" t="s">
         <v>15</v>
